--- a/pearson_tables/tp_netherlands_cumul-3-8.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-3-8.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6624209081963059</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5264643493493758</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4423766641541496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8263331332262257</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6993389551588828</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6629263925346509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5645865630967147</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6517092620965628</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6667177473130242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.832803698663746</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5661272026912727</v>
+        <v>-0.6672883717503439</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6793893271390156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7276311681968182</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7617114395235827</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7878309311234072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -536,12 +536,14 @@
           <t>EA_P</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="n">
-        <v>-0.5319930135591961</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5947912299595914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6839562613384452</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8459582279788572</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7321678451592464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5372317846883418</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8032530395226966</v>
+        <v>-0.7370391310428605</v>
       </c>
       <c r="D9" t="n">
-        <v>0.587898700109564</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
